--- a/biology/Botanique/Liste_des_palmiers_rustiques/Liste_des_palmiers_rustiques.xlsx
+++ b/biology/Botanique/Liste_des_palmiers_rustiques/Liste_des_palmiers_rustiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palmiers rustiques sont des espèces de palmiers (Arecaceae) qui sont capables de résister à de courtes périodes de températures plus froides et des chutes de neige occasionnelles. Quelques palmiers sont originaires d'altitudes plus élevées d'Asie du Sud, et quelques-uns peuvent tolérer des gels durs avec peu ou pas de dégâts. Beaucoup de ces espèces "rustiques" peuvent être cultivées dans des climats tempérés chauds. 
 Les espèces les plus robustes se trouvent dans les genres Rhapidophyllum, Sabal et Trachycarpus. Les membres de ces  genres sont parfois cultivées dans des zones où ils ne sont pas vraiment rustiques, leur hivernage se fait à l'aide de divers types de protection artificielle. 
@@ -514,7 +526,9 @@
           <t>Palmiers palmés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les palmiers palmés (Arecaceae tribu Corypheae ; les palmiers avec des feuilles en forme d'éventail) comprennent les palmiers les plus résistants. 
 Palmier de Chine (Trachycarpus fortunei, Trachycarpus takil) - les plus connus des palmiers rustiques, ces espèces sont originaires de Chine orientale et des montagnes de l'Himalaya. Résistant à environ -18 °C. Bien que ne se développe pas si loin au nord (à environ 31° N) comme le palmier aiguille, ils ne poussent à haute altitude où les températures sont fraîches. Il est également tolérant de faibles températures d'été. Des Trachycarpus matures ont été cultivés avec succès vers le nord jusqu'à 58° N dans le nord de l'Écosse. Spécimens matures peuvent également être trouvés dans la plupart des parties de l'Irlande, l'Angleterre, Vancouver, Île de Vancouver, Canada, Asie de l'Est (Japon, Chine, Corée du Sud), et dans certaines parties de l'Australie et la Nouvelle-Zélande [citation nécessaire]. Aux États-Unis Trachycarpus est cultivé au nord jusqu'à Seattle sur la côte du Pacifique et Long Island / côtière du New Jersey sur la côte Atlantique.
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
